--- a/municipal/ENG/Main Information/Administrative structure/Kakheti/Gurjaani.xlsx
+++ b/municipal/ENG/Main Information/Administrative structure/Kakheti/Gurjaani.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\Administrative structure\kakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Administrative structure\kakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="9960"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gurjaani" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,15 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>By January 1, 2022 (unit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative status of a local government unit </t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>City</t>
@@ -47,20 +41,14 @@
     <t>Village</t>
   </si>
   <si>
-    <t>Administrative structure of Gurjaani Municipality</t>
-  </si>
-  <si>
-    <t>administrative center of the municipality (City Gurjaani)</t>
-  </si>
-  <si>
-    <t>268 29 26</t>
+    <t>Gurjaani Municipality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +72,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -152,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -162,15 +140,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -464,20 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -497,63 +468,47 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
+      <c r="B3" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
+      <c r="B5" s="6">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="B6" s="6">
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/municipal/ENG/Main Information/Administrative structure/Kakheti/Gurjaani.xlsx
+++ b/municipal/ENG/Main Information/Administrative structure/Kakheti/Gurjaani.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Administrative structure\kakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\დასახლებების რაოდენობა 2022\მუნიციპალიტეტები\Number of settlements\Kakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9F341-2793-4EB8-8E0F-811C83919CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="9960"/>
+    <workbookView xWindow="5865" yWindow="3420" windowWidth="9795" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gurjaani" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>By January 1, 2022 (unit)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>City</t>
   </si>
@@ -42,12 +40,18 @@
   </si>
   <si>
     <t>Gurjaani Municipality</t>
+  </si>
+  <si>
+    <t>Self-governing city</t>
+  </si>
+  <si>
+    <t>By January 1, 2024 (unit)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -155,6 +159,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,8 +439,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,9 +451,9 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -457,58 +462,82 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="B7" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="B8" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
